--- a/merged_companies.xlsx
+++ b/merged_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>TotalRevenue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Full Earnings</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Full Revenue</t>
         </is>
       </c>
     </row>
@@ -511,7 +521,13 @@
         <v>117908112000</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
+        <v>1208698287000</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -544,7 +560,13 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -581,7 +603,13 @@
       <c r="H4" t="n">
         <v>45614.26</v>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
+        <v>284411845357</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -618,7 +646,13 @@
       <c r="H5" t="n">
         <v>303598.73</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
+        <v>255477482883</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -651,7 +685,13 @@
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -684,7 +724,13 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -717,7 +763,13 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -750,7 +802,13 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -785,7 +843,13 @@
         <v>18014467405</v>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
+        <v>150413333210</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -818,7 +882,13 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -851,7 +921,13 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -884,7 +960,13 @@
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -921,7 +1003,13 @@
       <c r="H14" t="n">
         <v>63615.09</v>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
+        <v>32164260254</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -956,7 +1044,13 @@
       <c r="H15" t="n">
         <v>489642.56</v>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -993,7 +1087,13 @@
       <c r="H16" t="n">
         <v>167581.76</v>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
+        <v>147419453323</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1026,7 +1126,13 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1061,7 +1167,13 @@
       <c r="H18" t="n">
         <v>149505.68</v>
       </c>
-      <c r="I18" t="b">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1098,7 +1210,13 @@
       <c r="H19" t="n">
         <v>183883.65</v>
       </c>
-      <c r="I19" t="b">
+      <c r="I19" t="n">
+        <v>62962652135</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1133,7 +1251,13 @@
       <c r="H20" t="n">
         <v>258035.05</v>
       </c>
-      <c r="I20" t="b">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1168,7 +1292,13 @@
       <c r="H21" t="n">
         <v>211846.17</v>
       </c>
-      <c r="I21" t="b">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1203,7 +1333,13 @@
       <c r="H22" t="n">
         <v>149554.46</v>
       </c>
-      <c r="I22" t="b">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1236,7 +1372,13 @@
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1269,7 +1411,13 @@
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1302,7 +1450,13 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1337,7 +1491,13 @@
       <c r="H26" t="n">
         <v>110996.45</v>
       </c>
-      <c r="I26" t="b">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1530,13 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1407,7 +1573,13 @@
       <c r="H28" t="n">
         <v>89753.14</v>
       </c>
-      <c r="I28" t="b">
+      <c r="I28" t="n">
+        <v>83460489000</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1440,7 +1612,13 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1473,7 +1651,13 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1510,7 +1694,13 @@
       <c r="H31" t="n">
         <v>117455.5</v>
       </c>
-      <c r="I31" t="b">
+      <c r="I31" t="n">
+        <v>61823889923</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1543,7 +1733,13 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1580,7 +1776,13 @@
       <c r="H33" t="n">
         <v>212688.06</v>
       </c>
-      <c r="I33" t="b">
+      <c r="I33" t="n">
+        <v>23366300997</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1617,7 +1819,13 @@
       <c r="H34" t="n">
         <v>8379.57</v>
       </c>
-      <c r="I34" t="b">
+      <c r="I34" t="n">
+        <v>8459192465</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1650,7 +1858,13 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1683,7 +1897,13 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="b">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1716,7 +1936,13 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="b">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +1971,11 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="b">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1782,7 +2012,13 @@
       <c r="H39" t="n">
         <v>76175.16</v>
       </c>
-      <c r="I39" t="b">
+      <c r="I39" t="n">
+        <v>109144878896</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1817,7 +2053,13 @@
       <c r="H40" t="n">
         <v>54220.13</v>
       </c>
-      <c r="I40" t="b">
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1854,7 +2096,13 @@
       <c r="H41" t="n">
         <v>1466.8</v>
       </c>
-      <c r="I41" t="b">
+      <c r="I41" t="n">
+        <v>20413120644</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1889,7 +2137,13 @@
       <c r="H42" t="n">
         <v>52848.26</v>
       </c>
-      <c r="I42" t="b">
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1922,7 +2176,13 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1955,7 +2215,13 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1988,7 +2254,13 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2021,7 +2293,13 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2054,7 +2332,13 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="b">
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2089,7 +2373,13 @@
       <c r="H48" t="n">
         <v>36194.8</v>
       </c>
-      <c r="I48" t="b">
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2122,7 +2412,13 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2155,7 +2451,13 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="b">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2188,7 +2490,13 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="b">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2221,7 +2529,13 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="b">
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +2568,13 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="b">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2287,7 +2607,13 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="b">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2320,7 +2646,13 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="b">
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2355,7 +2687,13 @@
       <c r="H56" t="n">
         <v>75408.63</v>
       </c>
-      <c r="I56" t="b">
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2388,7 +2726,13 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="b">
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2421,7 +2765,13 @@
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="b">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2454,7 +2804,13 @@
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="b">
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2487,7 +2843,13 @@
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="b">
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2520,7 +2882,13 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="b">
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2553,7 +2921,13 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2590,7 +2964,13 @@
       <c r="H63" t="n">
         <v>7546.77</v>
       </c>
-      <c r="I63" t="b">
+      <c r="I63" t="n">
+        <v>1721049617</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2623,7 +3003,13 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="b">
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2656,7 +3042,13 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="b">
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2689,7 +3081,13 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="b">
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2722,7 +3120,13 @@
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +3163,13 @@
       <c r="H68" t="n">
         <v>112400</v>
       </c>
-      <c r="I68" t="b">
+      <c r="I68" t="n">
+        <v>26248984718</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2792,7 +3202,13 @@
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="b">
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2829,8 +3245,14 @@
       <c r="H70" t="n">
         <v>1100.28</v>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2862,7 +3284,13 @@
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="b">
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2897,7 +3325,13 @@
       <c r="H72" t="n">
         <v>30030</v>
       </c>
-      <c r="I72" t="b">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2930,7 +3364,13 @@
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="b">
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2965,7 +3405,13 @@
       <c r="H74" t="n">
         <v>105451.06</v>
       </c>
-      <c r="I74" t="b">
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3002,7 +3448,13 @@
       <c r="H75" t="n">
         <v>1295.36</v>
       </c>
-      <c r="I75" t="b">
+      <c r="I75" t="n">
+        <v>2243571977</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3035,7 +3487,13 @@
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="b">
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3068,7 +3526,13 @@
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="b">
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3101,7 +3565,13 @@
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="b">
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3134,7 +3604,13 @@
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="b">
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3167,7 +3643,13 @@
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="b">
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3196,7 +3678,11 @@
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="b">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3229,7 +3715,13 @@
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="b">
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3264,7 +3756,13 @@
         <v>-3062613</v>
       </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="b">
+      <c r="I83" t="n">
+        <v>3412662</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3301,7 +3799,13 @@
       <c r="H84" t="n">
         <v>15938.47</v>
       </c>
-      <c r="I84" t="b">
+      <c r="I84" t="n">
+        <v>1281265789</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3336,7 +3840,13 @@
       <c r="H85" t="n">
         <v>36448.05</v>
       </c>
-      <c r="I85" t="b">
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3373,7 +3883,13 @@
       <c r="H86" t="n">
         <v>28755.73</v>
       </c>
-      <c r="I86" t="b">
+      <c r="I86" t="n">
+        <v>35289598359</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3408,7 +3924,13 @@
         <v>194547912</v>
       </c>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="b">
+      <c r="I87" t="n">
+        <v>63311663</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3445,7 +3967,13 @@
       <c r="H88" t="n">
         <v>33724.56</v>
       </c>
-      <c r="I88" t="b">
+      <c r="I88" t="n">
+        <v>8623963649</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3478,7 +4006,13 @@
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="b">
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3511,7 +4045,13 @@
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="b">
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3548,7 +4088,13 @@
       <c r="H91" t="n">
         <v>13959</v>
       </c>
-      <c r="I91" t="b">
+      <c r="I91" t="n">
+        <v>8172896486</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3585,7 +4131,13 @@
       <c r="H92" t="n">
         <v>63859.5</v>
       </c>
-      <c r="I92" t="b">
+      <c r="I92" t="n">
+        <v>6265861178</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3622,7 +4174,13 @@
       <c r="H93" t="n">
         <v>94947.50999999999</v>
       </c>
-      <c r="I93" t="b">
+      <c r="I93" t="n">
+        <v>139872996975</v>
+      </c>
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3655,7 +4213,13 @@
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="b">
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3688,7 +4252,13 @@
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="b">
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3725,7 +4295,13 @@
       <c r="H96" t="n">
         <v>1241.62</v>
       </c>
-      <c r="I96" t="b">
+      <c r="I96" t="n">
+        <v>1415451992</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3762,7 +4338,13 @@
       <c r="H97" t="n">
         <v>10000.13</v>
       </c>
-      <c r="I97" t="b">
+      <c r="I97" t="n">
+        <v>9477575304</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3797,7 +4379,13 @@
       <c r="H98" t="n">
         <v>26753.81</v>
       </c>
-      <c r="I98" t="b">
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3832,7 +4420,13 @@
       <c r="H99" t="n">
         <v>53486</v>
       </c>
-      <c r="I99" t="b">
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3869,7 +4463,13 @@
       <c r="H100" t="n">
         <v>13023.85</v>
       </c>
-      <c r="I100" t="b">
+      <c r="I100" t="n">
+        <v>21869458380</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3902,7 +4502,13 @@
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="b">
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3935,7 +4541,13 @@
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="b">
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3972,7 +4584,13 @@
       <c r="H103" t="n">
         <v>46986.85</v>
       </c>
-      <c r="I103" t="b">
+      <c r="I103" t="n">
+        <v>8529279576</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4009,7 +4627,13 @@
       <c r="H104" t="n">
         <v>9625.23</v>
       </c>
-      <c r="I104" t="b">
+      <c r="I104" t="n">
+        <v>40279778659</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4046,7 +4670,13 @@
       <c r="H105" t="n">
         <v>29575.92</v>
       </c>
-      <c r="I105" t="b">
+      <c r="I105" t="n">
+        <v>3295129859</v>
+      </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+      <c r="K105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4083,7 +4713,13 @@
       <c r="H106" t="n">
         <v>16911.82</v>
       </c>
-      <c r="I106" t="b">
+      <c r="I106" t="n">
+        <v>10061554214</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4116,7 +4752,13 @@
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="b">
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4153,7 +4795,13 @@
       <c r="H108" t="n">
         <v>23367.3</v>
       </c>
-      <c r="I108" t="b">
+      <c r="I108" t="n">
+        <v>5324411264</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4190,7 +4838,13 @@
       <c r="H109" t="n">
         <v>81880.10000000001</v>
       </c>
-      <c r="I109" t="b">
+      <c r="I109" t="n">
+        <v>17135684754</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4225,7 +4879,13 @@
         <v>1073259464</v>
       </c>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="b">
+      <c r="I110" t="n">
+        <v>5151411045</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4262,7 +4922,13 @@
       <c r="H111" t="n">
         <v>23446.73</v>
       </c>
-      <c r="I111" t="b">
+      <c r="I111" t="n">
+        <v>5133914168</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4299,7 +4965,13 @@
       <c r="H112" t="n">
         <v>2820</v>
       </c>
-      <c r="I112" t="b">
+      <c r="I112" t="n">
+        <v>1318816864</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4336,7 +5008,13 @@
       <c r="H113" t="n">
         <v>223.32</v>
       </c>
-      <c r="I113" t="b">
+      <c r="I113" t="n">
+        <v>704425452</v>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4369,7 +5047,13 @@
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="b">
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4406,7 +5090,13 @@
       <c r="H115" t="n">
         <v>48853.34</v>
       </c>
-      <c r="I115" t="b">
+      <c r="I115" t="n">
+        <v>71976618920</v>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4439,7 +5129,13 @@
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="b">
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4468,7 +5164,11 @@
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="b">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="b">
+        <v>0</v>
+      </c>
+      <c r="K117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4501,7 +5201,13 @@
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="b">
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4536,7 +5242,13 @@
       <c r="H119" t="n">
         <v>36788.73</v>
       </c>
-      <c r="I119" t="b">
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4569,7 +5281,11 @@
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="b">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4606,7 +5322,13 @@
       <c r="H121" t="n">
         <v>23888.78</v>
       </c>
-      <c r="I121" t="b">
+      <c r="I121" t="n">
+        <v>9041607472</v>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4643,7 +5365,13 @@
       <c r="H122" t="n">
         <v>35661.19</v>
       </c>
-      <c r="I122" t="b">
+      <c r="I122" t="n">
+        <v>10296575481</v>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4680,7 +5408,13 @@
       <c r="H123" t="n">
         <v>12899.69</v>
       </c>
-      <c r="I123" t="b">
+      <c r="I123" t="n">
+        <v>12804804439</v>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4713,7 +5447,13 @@
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="b">
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4750,7 +5490,13 @@
       <c r="H125" t="n">
         <v>25009.41</v>
       </c>
-      <c r="I125" t="b">
+      <c r="I125" t="n">
+        <v>35406142984</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4785,7 +5531,13 @@
       <c r="H126" t="n">
         <v>22814</v>
       </c>
-      <c r="I126" t="b">
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+      <c r="K126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4818,7 +5570,13 @@
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="b">
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <v>0</v>
+      </c>
+      <c r="K127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +5605,11 @@
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="b">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="b">
+        <v>0</v>
+      </c>
+      <c r="K128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4884,7 +5646,13 @@
       <c r="H129" t="n">
         <v>8451.299999999999</v>
       </c>
-      <c r="I129" t="b">
+      <c r="I129" t="n">
+        <v>5534899642</v>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4917,7 +5685,13 @@
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="b">
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4954,7 +5728,13 @@
       <c r="H131" t="n">
         <v>4881.6</v>
       </c>
-      <c r="I131" t="b">
+      <c r="I131" t="n">
+        <v>39014921936</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4987,7 +5767,13 @@
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="b">
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5020,7 +5806,13 @@
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="b">
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5057,7 +5849,13 @@
       <c r="H134" t="n">
         <v>12424.23</v>
       </c>
-      <c r="I134" t="b">
+      <c r="I134" t="n">
+        <v>6199498811</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5094,7 +5892,13 @@
       <c r="H135" t="n">
         <v>7957.54</v>
       </c>
-      <c r="I135" t="b">
+      <c r="I135" t="n">
+        <v>10027765814</v>
+      </c>
+      <c r="J135" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5131,7 +5935,13 @@
       <c r="H136" t="n">
         <v>2567.94</v>
       </c>
-      <c r="I136" t="b">
+      <c r="I136" t="n">
+        <v>792383106</v>
+      </c>
+      <c r="J136" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5164,7 +5974,13 @@
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="b">
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5201,7 +6017,13 @@
       <c r="H138" t="n">
         <v>18935.24</v>
       </c>
-      <c r="I138" t="b">
+      <c r="I138" t="n">
+        <v>4276240392</v>
+      </c>
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5238,7 +6060,13 @@
       <c r="H139" t="n">
         <v>1052.15</v>
       </c>
-      <c r="I139" t="b">
+      <c r="I139" t="n">
+        <v>17637444688</v>
+      </c>
+      <c r="J139" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5273,7 +6101,13 @@
       <c r="H140" t="n">
         <v>1081.5</v>
       </c>
-      <c r="I140" t="b">
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5306,7 +6140,13 @@
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="b">
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5339,7 +6179,13 @@
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="b">
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5376,7 +6222,13 @@
       <c r="H143" t="n">
         <v>6971.24</v>
       </c>
-      <c r="I143" t="b">
+      <c r="I143" t="n">
+        <v>1344706054</v>
+      </c>
+      <c r="J143" t="b">
+        <v>1</v>
+      </c>
+      <c r="K143" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5409,7 +6261,13 @@
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="b">
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5442,7 +6300,13 @@
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="b">
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5475,7 +6339,13 @@
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="b">
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5512,7 +6382,13 @@
       <c r="H147" t="n">
         <v>2449.27</v>
       </c>
-      <c r="I147" t="b">
+      <c r="I147" t="n">
+        <v>19584901776</v>
+      </c>
+      <c r="J147" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5549,7 +6425,13 @@
       <c r="H148" t="n">
         <v>2359.45</v>
       </c>
-      <c r="I148" t="b">
+      <c r="I148" t="n">
+        <v>8413912097</v>
+      </c>
+      <c r="J148" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5582,7 +6464,13 @@
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="b">
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>0</v>
+      </c>
+      <c r="K149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5619,7 +6507,13 @@
       <c r="H150" t="n">
         <v>14091.63</v>
       </c>
-      <c r="I150" t="b">
+      <c r="I150" t="n">
+        <v>31190353611</v>
+      </c>
+      <c r="J150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K150" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5652,7 +6546,13 @@
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="b">
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="b">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5689,7 +6589,13 @@
       <c r="H152" t="n">
         <v>8290.57</v>
       </c>
-      <c r="I152" t="b">
+      <c r="I152" t="n">
+        <v>2561535403</v>
+      </c>
+      <c r="J152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5726,7 +6632,13 @@
       <c r="H153" t="n">
         <v>5250</v>
       </c>
-      <c r="I153" t="b">
+      <c r="I153" t="n">
+        <v>17831082882</v>
+      </c>
+      <c r="J153" t="b">
+        <v>1</v>
+      </c>
+      <c r="K153" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5763,7 +6675,13 @@
       <c r="H154" t="n">
         <v>16229.15</v>
       </c>
-      <c r="I154" t="b">
+      <c r="I154" t="n">
+        <v>8899589311</v>
+      </c>
+      <c r="J154" t="b">
+        <v>1</v>
+      </c>
+      <c r="K154" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5800,7 +6718,13 @@
       <c r="H155" t="n">
         <v>1387.12</v>
       </c>
-      <c r="I155" t="b">
+      <c r="I155" t="n">
+        <v>7359354990</v>
+      </c>
+      <c r="J155" t="b">
+        <v>1</v>
+      </c>
+      <c r="K155" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5837,7 +6761,13 @@
       <c r="H156" t="n">
         <v>7606.83</v>
       </c>
-      <c r="I156" t="b">
+      <c r="I156" t="n">
+        <v>7508833947</v>
+      </c>
+      <c r="J156" t="b">
+        <v>1</v>
+      </c>
+      <c r="K156" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5870,7 +6800,13 @@
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
-      <c r="I157" t="b">
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>0</v>
+      </c>
+      <c r="K157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5903,7 +6839,13 @@
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="b">
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="b">
+        <v>0</v>
+      </c>
+      <c r="K158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5938,7 +6880,13 @@
       <c r="H159" t="n">
         <v>2580.67</v>
       </c>
-      <c r="I159" t="b">
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5971,7 +6919,13 @@
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="b">
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
+        <v>0</v>
+      </c>
+      <c r="K160" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6004,7 +6958,13 @@
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
-      <c r="I161" t="b">
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="b">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6041,7 +7001,13 @@
       <c r="H162" t="n">
         <v>27072.35</v>
       </c>
-      <c r="I162" t="b">
+      <c r="I162" t="n">
+        <v>3695525336</v>
+      </c>
+      <c r="J162" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6074,7 +7040,13 @@
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="b">
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6107,7 +7079,13 @@
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="b">
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6144,7 +7122,13 @@
       <c r="H165" t="n">
         <v>1575.49</v>
       </c>
-      <c r="I165" t="b">
+      <c r="I165" t="n">
+        <v>14199068821</v>
+      </c>
+      <c r="J165" t="b">
+        <v>1</v>
+      </c>
+      <c r="K165" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6181,7 +7165,13 @@
       <c r="H166" t="n">
         <v>2895.89</v>
       </c>
-      <c r="I166" t="b">
+      <c r="I166" t="n">
+        <v>4733156444</v>
+      </c>
+      <c r="J166" t="b">
+        <v>1</v>
+      </c>
+      <c r="K166" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6214,7 +7204,13 @@
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="b">
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="b">
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6251,7 +7247,13 @@
       <c r="H168" t="n">
         <v>12187.81</v>
       </c>
-      <c r="I168" t="b">
+      <c r="I168" t="n">
+        <v>12383063413</v>
+      </c>
+      <c r="J168" t="b">
+        <v>1</v>
+      </c>
+      <c r="K168" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6288,7 +7290,13 @@
       <c r="H169" t="n">
         <v>7745.3</v>
       </c>
-      <c r="I169" t="b">
+      <c r="I169" t="n">
+        <v>12425473708</v>
+      </c>
+      <c r="J169" t="b">
+        <v>1</v>
+      </c>
+      <c r="K169" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6325,7 +7333,13 @@
       <c r="H170" t="n">
         <v>15105.46</v>
       </c>
-      <c r="I170" t="b">
+      <c r="I170" t="n">
+        <v>2292832702</v>
+      </c>
+      <c r="J170" t="b">
+        <v>1</v>
+      </c>
+      <c r="K170" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6360,7 +7374,13 @@
       <c r="H171" t="n">
         <v>7866.28</v>
       </c>
-      <c r="I171" t="b">
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="b">
+        <v>0</v>
+      </c>
+      <c r="K171" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6393,7 +7413,13 @@
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="b">
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6426,7 +7452,13 @@
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="b">
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6463,7 +7495,13 @@
       <c r="H174" t="n">
         <v>14042.13</v>
       </c>
-      <c r="I174" t="b">
+      <c r="I174" t="n">
+        <v>5647936253</v>
+      </c>
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6500,7 +7538,13 @@
       <c r="H175" t="n">
         <v>13596.98</v>
       </c>
-      <c r="I175" t="b">
+      <c r="I175" t="n">
+        <v>8039546309</v>
+      </c>
+      <c r="J175" t="b">
+        <v>1</v>
+      </c>
+      <c r="K175" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6537,7 +7581,13 @@
       <c r="H176" t="n">
         <v>1307.4</v>
       </c>
-      <c r="I176" t="b">
+      <c r="I176" t="n">
+        <v>4659712532</v>
+      </c>
+      <c r="J176" t="b">
+        <v>1</v>
+      </c>
+      <c r="K176" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6572,7 +7622,13 @@
         <v>4122446</v>
       </c>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="b">
+      <c r="I177" t="n">
+        <v>323968946</v>
+      </c>
+      <c r="J177" t="b">
+        <v>1</v>
+      </c>
+      <c r="K177" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6609,7 +7665,13 @@
       <c r="H178" t="n">
         <v>125</v>
       </c>
-      <c r="I178" t="b">
+      <c r="I178" t="n">
+        <v>394164626</v>
+      </c>
+      <c r="J178" t="b">
+        <v>1</v>
+      </c>
+      <c r="K178" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6642,7 +7704,13 @@
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="b">
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6679,7 +7747,13 @@
       <c r="H180" t="n">
         <v>14369.02</v>
       </c>
-      <c r="I180" t="b">
+      <c r="I180" t="n">
+        <v>4597064189</v>
+      </c>
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6714,7 +7788,13 @@
       <c r="H181" t="n">
         <v>10538.24</v>
       </c>
-      <c r="I181" t="b">
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="b">
+        <v>0</v>
+      </c>
+      <c r="K181" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6747,7 +7827,13 @@
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
-      <c r="I182" t="b">
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6784,7 +7870,13 @@
       <c r="H183" t="n">
         <v>452.03</v>
       </c>
-      <c r="I183" t="b">
+      <c r="I183" t="n">
+        <v>4225665380</v>
+      </c>
+      <c r="J183" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6821,7 +7913,13 @@
       <c r="H184" t="n">
         <v>5549</v>
       </c>
-      <c r="I184" t="b">
+      <c r="I184" t="n">
+        <v>4130288076</v>
+      </c>
+      <c r="J184" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6854,7 +7952,13 @@
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
-      <c r="I185" t="b">
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6887,7 +7991,13 @@
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
-      <c r="I186" t="b">
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6920,7 +8030,13 @@
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
-      <c r="I187" t="b">
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6953,7 +8069,13 @@
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
-      <c r="I188" t="b">
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="b">
+        <v>0</v>
+      </c>
+      <c r="K188" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6990,7 +8112,13 @@
       <c r="H189" t="n">
         <v>14737.34</v>
       </c>
-      <c r="I189" t="b">
+      <c r="I189" t="n">
+        <v>7807769384</v>
+      </c>
+      <c r="J189" t="b">
+        <v>1</v>
+      </c>
+      <c r="K189" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7027,7 +8155,13 @@
       <c r="H190" t="n">
         <v>19804.2</v>
       </c>
-      <c r="I190" t="b">
+      <c r="I190" t="n">
+        <v>2775753386</v>
+      </c>
+      <c r="J190" t="b">
+        <v>1</v>
+      </c>
+      <c r="K190" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7060,7 +8194,13 @@
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
-      <c r="I191" t="b">
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="b">
+        <v>0</v>
+      </c>
+      <c r="K191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7093,7 +8233,13 @@
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
-      <c r="I192" t="b">
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="b">
+        <v>0</v>
+      </c>
+      <c r="K192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7130,7 +8276,13 @@
       <c r="H193" t="n">
         <v>51557.44</v>
       </c>
-      <c r="I193" t="b">
+      <c r="I193" t="n">
+        <v>4275042006</v>
+      </c>
+      <c r="J193" t="b">
+        <v>1</v>
+      </c>
+      <c r="K193" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7167,7 +8319,13 @@
       <c r="H194" t="n">
         <v>11304.33</v>
       </c>
-      <c r="I194" t="b">
+      <c r="I194" t="n">
+        <v>4091208039</v>
+      </c>
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="K194" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7204,7 +8362,13 @@
       <c r="H195" t="n">
         <v>32962.5</v>
       </c>
-      <c r="I195" t="b">
+      <c r="I195" t="n">
+        <v>2896232466</v>
+      </c>
+      <c r="J195" t="b">
+        <v>1</v>
+      </c>
+      <c r="K195" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7241,7 +8405,13 @@
       <c r="H196" t="n">
         <v>7260.69</v>
       </c>
-      <c r="I196" t="b">
+      <c r="I196" t="n">
+        <v>3191727173</v>
+      </c>
+      <c r="J196" t="b">
+        <v>1</v>
+      </c>
+      <c r="K196" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7278,7 +8448,13 @@
       <c r="H197" t="n">
         <v>11781.16</v>
       </c>
-      <c r="I197" t="b">
+      <c r="I197" t="n">
+        <v>32347249310</v>
+      </c>
+      <c r="J197" t="b">
+        <v>1</v>
+      </c>
+      <c r="K197" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7313,7 +8489,13 @@
         <v>91467726</v>
       </c>
       <c r="H198" t="inlineStr"/>
-      <c r="I198" t="b">
+      <c r="I198" t="n">
+        <v>11473410243</v>
+      </c>
+      <c r="J198" t="b">
+        <v>1</v>
+      </c>
+      <c r="K198" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7350,7 +8532,13 @@
       <c r="H199" t="n">
         <v>758.15</v>
       </c>
-      <c r="I199" t="b">
+      <c r="I199" t="n">
+        <v>8924116899</v>
+      </c>
+      <c r="J199" t="b">
+        <v>1</v>
+      </c>
+      <c r="K199" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7383,7 +8571,13 @@
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
-      <c r="I200" t="b">
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="b">
+        <v>0</v>
+      </c>
+      <c r="K200" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7412,7 +8606,11 @@
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="b">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="b">
+        <v>0</v>
+      </c>
+      <c r="K201" t="b">
         <v>0</v>
       </c>
     </row>

--- a/merged_companies.xlsx
+++ b/merged_companies.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NopNganSach</t>
+          <t>TaxPaid</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/otc/PVN-tap-doan-dau-khi-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/PVN-tap-doan-dau-khi-viet-nam.chn</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/otc/VIETTEL-tap-doan-cong-nghiep-vien-thong-quan-doi-viettel.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VIETTEL-tap-doan-cong-nghiep-vien-thong-quan-doi-viettel.chn</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/hose/PLX-tap-doan-xang-dau-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/PLX-tap-doan-xang-dau-viet-nam.chn</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/hose/VIC-tap-doan-vingroup-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VIC-tap-doan-vingroup-ctcp.chn</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/otc/VINACOMIN-tap-doan-cong-nghiep-than-khoang-san-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VINACOMIN-tap-doan-cong-nghiep-than-khoang-san-viet-nam.chn</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/otc/VIETSOVPETRO-lien-doanh-viet-nga-vietsovpetro.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VIETSOVPETRO-lien-doanh-viet-nga-vietsovpetro.chn</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/otc/TOYOTAVN-cong-ty-o-to-toyota-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/TOYOTAVN-cong-ty-o-to-toyota-viet-nam.chn</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/otc/EVN-tap-doan-dien-luc-viet-nam-cong-ty-tnhh-mtv.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/EVN-tap-doan-dien-luc-viet-nam-cong-ty-tnhh-mtv.chn</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/otc/THA-cong-ty-co-phan-tap-doan-truong-hai.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/THA-cong-ty-co-phan-tap-doan-truong-hai.chn</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/otc/NSRP-cong-ty-tnhh-loc-hoa-dau-nghi-son.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/NSRP-cong-ty-tnhh-loc-hoa-dau-nghi-son.chn</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/otc/VINATABA-tong-cong-ty-thuoc-la-viet-nam-cong-ty-tnhh-mtv.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VINATABA-tong-cong-ty-thuoc-la-viet-nam-cong-ty-tnhh-mtv.chn</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/otc/TCGROUP-cong-ty-co-phan-tap-doan-thanh-cong.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/TCGROUP-cong-ty-co-phan-tap-doan-thanh-cong.chn</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/hose/SAB-tong-ctcp-bia-ruou-nuoc-giai-khat-sai-gon.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SAB-tong-ctcp-bia-ruou-nuoc-giai-khat-sai-gon.chn</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/hose/VCB-ngan-hang-thuong-mai-co-phan-ngoai-thuong-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VCB-ngan-hang-thuong-mai-co-phan-ngoai-thuong-viet-nam.chn</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/hose/HPG-ctcp-tap-doan-hoa-phat.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/HPG-ctcp-tap-doan-hoa-phat.chn</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/hose/TCB-ngan-hang-tmcp-ky-thuong-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/TCB-ngan-hang-tmcp-ky-thuong-viet-nam.chn</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/hose/MBB-ngan-hang-thuong-mai-co-phan-quan-doi.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/MBB-ngan-hang-thuong-mai-co-phan-quan-doi.chn</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/hose/FPT-ctcp-fpt.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/FPT-ctcp-fpt.chn</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/hose/BID-ngan-hang-thuong-mai-co-phan-dau-tu-va-phat-trien-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/BID-ngan-hang-thuong-mai-co-phan-dau-tu-va-phat-trien-viet-nam.chn</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/hose/CTG-ngan-hang-thuong-mai-co-phan-cong-thuong-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/CTG-ngan-hang-thuong-mai-co-phan-cong-thuong-viet-nam.chn</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/hose/VPB-ngan-hang-tmcp-viet-nam-thinh-vuong.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VPB-ngan-hang-tmcp-viet-nam-thinh-vuong.chn</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/otc/HFIC-cong-ty-dau-tu-tai-chinh-nha-nuoc-tp-ho-chi-minh.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HFIC-cong-ty-dau-tu-tai-chinh-nha-nuoc-tp-ho-chi-minh.chn</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/otc/VNPT-tap-doan-buu-chinh-vien-thong-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VNPT-tap-doan-buu-chinh-vien-thong-viet-nam.chn</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/hose/TCH-ctcp-dau-tu-dich-vu-tai-chinh-hoang-huy.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/TCH-ctcp-dau-tu-dich-vu-tai-chinh-hoang-huy.chn</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/hose/ACB-ngan-hang-tmcp-a-chau.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/ACB-ngan-hang-tmcp-a-chau.chn</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/otc/AGRIBANK-ngan-hang-nong-nghiep-va-phat-trien-nong-thon-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/AGRIBANK-ngan-hang-nong-nghiep-va-phat-trien-nong-thon-viet-nam.chn</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/hose/MSN-ctcp-tap-doan-masan.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/MSN-ctcp-tap-doan-masan.chn</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/otc/NECORP-tong-cong-ty-dong-bac-bqp.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/NECORP-tong-cong-ty-dong-bac-bqp.chn</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/otc/SEVT-cong-ty-tnhh-samsung-electronics-viet-nam-thai-nguyen.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/SEVT-cong-ty-tnhh-samsung-electronics-viet-nam-thai-nguyen.chn</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/hose/VNM-ctcp-sua-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VNM-ctcp-sua-viet-nam.chn</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/otc/KHATOCO-tong-cong-ty-khanh-viet.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/KHATOCO-tong-cong-ty-khanh-viet.chn</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/upcom/ACV-tong-cong-ty-cang-hang-khong-viet-nam-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/ACV-tong-cong-ty-cang-hang-khong-viet-nam-ctcp.chn</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/hose/BHN-tong-ctcp-bia-ruou-nuoc-giai-khat-ha-noi.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/BHN-tong-ctcp-bia-ruou-nuoc-giai-khat-ha-noi.chn</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/otc/SCIC-tong-cong-ty-dau-tu-va-kinh-doanh-von-nha-nuoc.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/SCIC-tong-cong-ty-dau-tu-va-kinh-doanh-von-nha-nuoc.chn</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/otc/CARLSBERG-cong-ty-thhh-bia-carlsberg-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/CARLSBERG-cong-ty-thhh-bia-carlsberg-viet-nam.chn</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/otc/SATRA-tong-cong-ty-thuong-mai-sai-gon-tnhh-mtv.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/SATRA-tong-cong-ty-thuong-mai-sai-gon-tnhh-mtv.chn</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/hose/HVN-tong-cong-ty-hang-khong-viet-nam-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/HVN-tong-cong-ty-hang-khong-viet-nam-ctcp.chn</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/hose/VIB-ngan-hang-tmcp-quoc-te-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VIB-ngan-hang-tmcp-quoc-te-viet-nam.chn</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/upcom/TLP-tong-cong-ty-thuong-mai-xuat-nhap-khau-thanh-le-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/TLP-tong-cong-ty-thuong-mai-xuat-nhap-khau-thanh-le-ctcp.chn</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/hose/SHB-ngan-hang-tmcp-sai-gon-ha-noi.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SHB-ngan-hang-tmcp-sai-gon-ha-noi.chn</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/hose/HDB-ngan-hang-tmcp-phat-trien-thanh-pho-ho-chi-minh.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/HDB-ngan-hang-tmcp-phat-trien-thanh-pho-ho-chi-minh.chn</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/otc/XSDONGNAI-cong-ty-tnhh-mtv-xo-so-kien-thiet-va-dich-vu-tong-hop-dong-nai.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSDONGNAI-cong-ty-tnhh-mtv-xo-so-kien-thiet-va-dich-vu-tong-hop-dong-nai.chn</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/otc/SAWACO-tong-cong-ty-cap-nuoc-sai-gon.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/SAWACO-tong-cong-ty-cap-nuoc-sai-gon.chn</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/otc/BIMGROUP-cong-ty-co-phan-tap-doan-bim.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/BIMGROUP-cong-ty-co-phan-tap-doan-bim.chn</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/otc/FORDVN-cty-tnhh-ford-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/FORDVN-cty-tnhh-ford-viet-nam.chn</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/hose/TPB-ngan-hang-tmcp-tien-phong.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/TPB-ngan-hang-tmcp-tien-phong.chn</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/otc/XSLA-cong-ty-tnhh-mtv-xo-so-kien-thiet-long-an.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSLA-cong-ty-tnhh-mtv-xo-so-kien-thiet-long-an.chn</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/otc/XSTN-cong-ty-tnhh-xo-so-kien-thiet-tinh-tay-ninh.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSTN-cong-ty-tnhh-xo-so-kien-thiet-tinh-tay-ninh.chn</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/otc/VNEX-so-giao-dich-chung-khoan-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VNEX-so-giao-dich-chung-khoan-viet-nam.chn</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/otc/DOJI-ctcp-tap-doan-vang-bac-da-quy-doji.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/DOJI-ctcp-tap-doan-vang-bac-da-quy-doji.chn</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/otc/XSDT-cong-ty-tnhh-mtv-xo-so-kien-thiet-tinh-dong-thap.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSDT-cong-ty-tnhh-mtv-xo-so-kien-thiet-tinh-dong-thap.chn</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/otc/XSBINHDUONG-cong-ty-tnhh-mtv-xo-so-kien-thiet-binh-duong.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSBINHDUONG-cong-ty-tnhh-mtv-xo-so-kien-thiet-binh-duong.chn</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/otc/XSKG-cong-ty-tnhh-mtv-xo-so-kien-thiet-kien-giang.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSKG-cong-ty-tnhh-mtv-xo-so-kien-thiet-kien-giang.chn</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/hose/STB-ngan-hang-tmcp-sai-gon-thuong-tin.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/STB-ngan-hang-tmcp-sai-gon-thuong-tin.chn</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/otc/XSBRVT-cong-ty-tnhh-mtv-xo-so-kien-thiet-tinh-ba-ria-vung-tau.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSBRVT-cong-ty-tnhh-mtv-xo-so-kien-thiet-tinh-ba-ria-vung-tau.chn</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/otc/XSBL-cong-ty-tnhh-mtv-xo-so-kien-thiet-bac-lieu.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSBL-cong-ty-tnhh-mtv-xo-so-kien-thiet-bac-lieu.chn</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/otc/XSTG-cong-ty-tnhh-mtv-xo-so-kien-thiet-tien-giang.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSTG-cong-ty-tnhh-mtv-xo-so-kien-thiet-tien-giang.chn</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/otc/SNP-cong-ty-tnhh-mtv-tong-cong-ty-tan-cang-sai-gon.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/SNP-cong-ty-tnhh-mtv-tong-cong-ty-tan-cang-sai-gon.chn</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/otc/XSTV-xo-so-kien-thiet-tinh-tra-vinh.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSTV-xo-so-kien-thiet-tinh-tra-vinh.chn</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/otc/XSCM-cong-ty-tnhh-mtv-xo-so-kien-thiet-ca-mau.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSCM-cong-ty-tnhh-mtv-xo-so-kien-thiet-ca-mau.chn</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/upcom/TAL-ctcp-dau-tu-bat-dong-san-taseco.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/TAL-ctcp-dau-tu-bat-dong-san-taseco.chn</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/otc/XSAG-cong-ty-tnhh-mtv-xo-so-kien-thiet-an-giang.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSAG-cong-ty-tnhh-mtv-xo-so-kien-thiet-an-giang.chn</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/otc/XSCT-cong-ty-tnhh-nha-nuoc-mtv-xo-so-kien-thiet-can-tho.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSCT-cong-ty-tnhh-nha-nuoc-mtv-xo-so-kien-thiet-can-tho.chn</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/otc/XSBENTRE-cong-ty-tnhh-mtv-xo-so-kien-thiet-ben-tre.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSBENTRE-cong-ty-tnhh-mtv-xo-so-kien-thiet-ben-tre.chn</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/otc/XSLD-cong-ty-tnhh-mtv-xo-so-kien-thiet-lam-dong.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSLD-cong-ty-tnhh-mtv-xo-so-kien-thiet-lam-dong.chn</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/hose/GVR-tap-doan-cong-nghiep-cao-su-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/GVR-tap-doan-cong-nghiep-cao-su-viet-nam.chn</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/otc/XSBINHTHUAN-cong-ty-tnhh-mtv-xo-so-kien-thiet-binh-thuan.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSBINHTHUAN-cong-ty-tnhh-mtv-xo-so-kien-thiet-binh-thuan.chn</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/upcom/PDT-cong-ty-tnhh-mtv-thuong-mai-dau-khi-dong-thap.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/PDT-cong-ty-tnhh-mtv-thuong-mai-dau-khi-dong-thap.chn</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/otc/XSVL-cong-ty-tnhh-mtv-xo-so-kien-thiet-vinh-long.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSVL-cong-ty-tnhh-mtv-xo-so-kien-thiet-vinh-long.chn</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/hose/MSB-ngan-hang-tmcp-hang-hai-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/MSB-ngan-hang-tmcp-hang-hai-viet-nam.chn</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/otc/VINACHEM-tap-doan-hoa-chat-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VINACHEM-tap-doan-hoa-chat-viet-nam.chn</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/hose/LPB-ngan-hang-tmcp-loc-phat-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/LPB-ngan-hang-tmcp-loc-phat-viet-nam.chn</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/upcom/SBB-ctcp-tap-doan-bia-sai-gon-binh-tay.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/SBB-ctcp-tap-doan-bia-sai-gon-binh-tay.chn</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/otc/VPSS-ctcp-chung-khoan-vps.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VPSS-ctcp-chung-khoan-vps.chn</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/otc/XSST-cong-ty-tnhh-mtv-xo-so-kien-thiet-soc-trang.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSST-cong-ty-tnhh-mtv-xo-so-kien-thiet-soc-trang.chn</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/otc/VIETLOTT-cong-ty-tnhh-mtv-xo-so-dien-toan-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VIETLOTT-cong-ty-tnhh-mtv-xo-so-dien-toan-viet-nam.chn</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/otc/XSHG-cong-ty-tnhh-mtv-xo-so-kien-thiet-hau-giang.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSHG-cong-ty-tnhh-mtv-xo-so-kien-thiet-hau-giang.chn</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/otc/VATM-tong-cong-ty-quan-ly-bay-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VATM-tong-cong-ty-quan-ly-bay-viet-nam.chn</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/otc/MOBIFONE-tong-cong-ty-vien-thong-mobifone.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/MOBIFONE-tong-cong-ty-vien-thong-mobifone.chn</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/otc/DOFICO-tong-cong-ty-cong-nghiep-thuc-pham-dong-nai.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/DOFICO-tong-cong-ty-cong-nghiep-thuc-pham-dong-nai.chn</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/hose/VPI-ctcp-dau-tu-van-phu-invest.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VPI-ctcp-dau-tu-van-phu-invest.chn</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/hose/BVH-tap-doan-bao-viet.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/BVH-tap-doan-bao-viet.chn</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>/hose/PNJ-ctcp-vang-bac-da-quy-phu-nhuan.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/PNJ-ctcp-vang-bac-da-quy-phu-nhuan.chn</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>/otc/VICEM-tong-cong-ty-cong-nghiep-xi-mang-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VICEM-tong-cong-ty-cong-nghiep-xi-mang-viet-nam.chn</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>/hose/REE-ctcp-co-dien-lanh.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/REE-ctcp-co-dien-lanh.chn</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>/otc/XSBP-cong-ty-tnhh-mtv-xo-so-kien-thiet-va-dich-vu-tong-hop-binh-phuoc.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSBP-cong-ty-tnhh-mtv-xo-so-kien-thiet-va-dich-vu-tong-hop-binh-phuoc.chn</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>/otc/HSBC-hsbc-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HSBC-hsbc-viet-nam.chn</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/hastc/IDC-tong-cong-ty-idico-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//hastc/IDC-tong-cong-ty-idico-ctcp.chn</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>/hose/BCM-tong-cong-ty-dau-tu-va-phat-trien-cong-nghiep-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/BCM-tong-cong-ty-dau-tu-va-phat-trien-cong-nghiep-ctcp.chn</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>/hose/MWG-cong-ty-co-phan-dau-tu-the-gioi-di-dong.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/MWG-cong-ty-co-phan-dau-tu-the-gioi-di-dong.chn</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>/otc/HYOSUNGVN-cong-ty-tnhh-hyosung-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HYOSUNGVN-cong-ty-tnhh-hyosung-viet-nam.chn</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>/otc/NS2PC-cong-ty-tnhh-dien-nghi-son-2.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/NS2PC-cong-ty-tnhh-dien-nghi-son-2.chn</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>/hose/SMB-ctcp-bia-sai-gon-mien-trung.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SMB-ctcp-bia-sai-gon-mien-trung.chn</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/upcom/VNZ-ctcp-vng.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/VNZ-ctcp-vng.chn</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>/hose/OCB-ngan-hang-tmcp-phuong-dong.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/OCB-ngan-hang-tmcp-phuong-dong.chn</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>/hose/SSB-ngan-hang-tmcp-dong-nam-a.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SSB-ngan-hang-tmcp-dong-nam-a.chn</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>/hastc/PVI-cong-ty-co-phan-pvi.chn</t>
+          <t>https://cafef.vn/du-lieu//hastc/PVI-cong-ty-co-phan-pvi.chn</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>/otc/VASNS-ctcp-tap-doan-vas-nghi-son.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VASNS-ctcp-tap-doan-vas-nghi-son.chn</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>/otc/SAIGONPETRO-cong-ty-tnhh-mtv-dau-khi-thanh-pho-ho-chi-minh.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/SAIGONPETRO-cong-ty-tnhh-mtv-dau-khi-thanh-pho-ho-chi-minh.chn</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/hose/SSI-ctcp-chung-khoan-ssi.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SSI-ctcp-chung-khoan-ssi.chn</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>/hose/HSG-ctcp-tap-doan-hoa-sen.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/HSG-ctcp-tap-doan-hoa-sen.chn</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>/hose/KDH-ctcp-dau-tu-va-kinh-doanh-nha-khang-dien.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/KDH-ctcp-dau-tu-va-kinh-doanh-nha-khang-dien.chn</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>/upcom/QNS-ctcp-duong-quang-ngai.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/QNS-ctcp-duong-quang-ngai.chn</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>/otc/DAIICHILIFE-cong-ty-tnhh-bao-hiem-nhan-tho-daiichi-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/DAIICHILIFE-cong-ty-tnhh-bao-hiem-nhan-tho-daiichi-viet-nam.chn</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>/hose/VND-ctcp-chung-khoan-vndirect.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VND-ctcp-chung-khoan-vndirect.chn</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/upcom/MVN-tong-cong-ty-hang-hai-viet-nam-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/MVN-tong-cong-ty-hang-hai-viet-nam-ctcp.chn</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>/otc/SAIGONTOURIST-tong-cong-ty-du-lich-sai-gon-tnhh-mot-thanh-vien.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/SAIGONTOURIST-tong-cong-ty-du-lich-sai-gon-tnhh-mot-thanh-vien.chn</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>/hose/GMD-ctcp-gemadept.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/GMD-ctcp-gemadept.chn</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>/upcom/PRT-tong-cong-ty-san-xuat-xuat-nhap-khau-binh-duong-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/PRT-tong-cong-ty-san-xuat-xuat-nhap-khau-binh-duong-ctcp.chn</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>/hose/PSH-ctcp-thuong-mai-dau-tu-dau-khi-nam-song-hau.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/PSH-ctcp-thuong-mai-dau-tu-dau-khi-nam-song-hau.chn</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>/otc/NESTLE-cong-ty-tnhh-nestle-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/NESTLE-cong-ty-tnhh-nestle-viet-nam.chn</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>/hose/VJC-ctcp-hang-khong-vietjet.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VJC-ctcp-hang-khong-vietjet.chn</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>/otc/TADT-cong-ty-cp-dau-tu-tap-doan-tan-a-dai-thanh.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/TADT-cong-ty-cp-dau-tu-tap-doan-tan-a-dai-thanh.chn</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>/otc/HYOSUNGDN-cong-ty-tnhh-hyosung-dong-nai.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HYOSUNGDN-cong-ty-tnhh-hyosung-dong-nai.chn</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>/hose/EIB-ngan-hang-tmcp-xuat-nhap-khau-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/EIB-ngan-hang-tmcp-xuat-nhap-khau-viet-nam.chn</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>/otc/VNRAILWAYS-tong-cong-ty-duong-sat-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VNRAILWAYS-tong-cong-ty-duong-sat-viet-nam.chn</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>/hose/NVL-ctcp-tap-doan-dau-tu-dia-oc-no-va.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/NVL-ctcp-tap-doan-dau-tu-dia-oc-no-va.chn</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>/hose/DGC-ctcp-tap-doan-hoa-chat-duc-giang.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/DGC-ctcp-tap-doan-hoa-chat-duc-giang.chn</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>/hose/VCG-tong-ctcp-xuat-nhap-khau-va-xay-dung-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VCG-tong-ctcp-xuat-nhap-khau-va-xay-dung-viet-nam.chn</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>/otc/LGDVHP-cong-ty-tnhh-lg-display-viet-nam-hai-phong.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/LGDVHP-cong-ty-tnhh-lg-display-viet-nam-hai-phong.chn</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>/hose/GEX-ctcp-tap-doan-gelex.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/GEX-ctcp-tap-doan-gelex.chn</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>/hose/NAB-ngan-hang-tmcp-nam-a.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/NAB-ngan-hang-tmcp-nam-a.chn</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>/otc/PRUDENTIAL-cong-ty-tnhh-bao-hiem-nhan-tho-prudential-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/PRUDENTIAL-cong-ty-tnhh-bao-hiem-nhan-tho-prudential-viet-nam.chn</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>/upcom/SJG-tong-cong-ty-song-da-cong-ty-co-phan.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/SJG-tong-cong-ty-song-da-cong-ty-co-phan.chn</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>/otc/AIAL-cong-ty-tnhh-bao-hiem-nhan-tho-aia-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/AIAL-cong-ty-tnhh-bao-hiem-nhan-tho-aia-viet-nam.chn</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>/upcom/TVN-tong-cong-ty-thep-viet-nam-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/TVN-tong-cong-ty-thep-viet-nam-ctcp.chn</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>/otc/PIAGGIO-cong-ty-tnhh-piaggio-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/PIAGGIO-cong-ty-tnhh-piaggio-viet-nam.chn</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>/otc/BSGVL-ctcp-bia-sai-gon-vinh-long.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/BSGVL-ctcp-bia-sai-gon-vinh-long.chn</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>/upcom/SNZ-tong-cong-ty-co-phan-phat-trien-khu-cong-nghiep.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/SNZ-tong-cong-ty-co-phan-phat-trien-khu-cong-nghiep.chn</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>/hose/PC1-ctcp-tap-doan-pc1.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/PC1-ctcp-tap-doan-pc1.chn</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>/hose/AGG-ctcp-dau-tu-va-phat-trien-bat-dong-san-an-gia.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/AGG-ctcp-dau-tu-va-phat-trien-bat-dong-san-an-gia.chn</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>/otc/STAVIANCHEM-cong-ty-co-phan-stavian-hoa-chat.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/STAVIANCHEM-cong-ty-co-phan-stavian-hoa-chat.chn</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>/hose/HCM-ctcp-chung-khoan-tphcm.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/HCM-ctcp-chung-khoan-tphcm.chn</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>/hose/VPG-ctcp-dau-tu-thuong-mai-xuat-nhap-khau-viet-phat.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VPG-ctcp-dau-tu-thuong-mai-xuat-nhap-khau-viet-phat.chn</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>/upcom/HLB-ctcp-bia-va-nuoc-giai-khat-ha-long.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/HLB-ctcp-bia-va-nuoc-giai-khat-ha-long.chn</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>/otc/YSKH-cong-ty-tnhh-nha-nuoc-mtv-yen-sao-khanh-hoa.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/YSKH-cong-ty-tnhh-nha-nuoc-mtv-yen-sao-khanh-hoa.chn</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>/otc/BSGBT-ctcp-bia-sai-gon-ben-tre.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/BSGBT-ctcp-bia-sai-gon-ben-tre.chn</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>/hastc/CEO-ctcp-tap-doan-ceo.chn</t>
+          <t>https://cafef.vn/du-lieu//hastc/CEO-ctcp-tap-doan-ceo.chn</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>/hose/NLG-ctcp-dau-tu-nam-long.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/NLG-ctcp-dau-tu-nam-long.chn</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>/otc/BATVINATABA-cong-ty-lien-doanh-thuoc-la-bat-vinataba.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/BATVINATABA-cong-ty-lien-doanh-thuoc-la-bat-vinataba.chn</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>/otc/HUDX-tong-cong-ty-dau-tu-phat-trien-nha-va-do-thicong-ty-tnhh.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HUDX-tong-cong-ty-dau-tu-phat-trien-nha-va-do-thicong-ty-tnhh.chn</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>/hose/PET-tong-ctcp-dich-vu-tong-hop-dau-khi.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/PET-tong-ctcp-dich-vu-tong-hop-dau-khi.chn</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>/hose/RAL-ctcp-bong-den-phich-nuoc-rang-dong.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/RAL-ctcp-bong-den-phich-nuoc-rang-dong.chn</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>/hose/BMP-cong-ty-co-phan-nhua-binh-minh.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/BMP-cong-ty-co-phan-nhua-binh-minh.chn</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>/hose/SBT-ctcp-thanh-thanh-cong-bien-hoa.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SBT-ctcp-thanh-thanh-cong-bien-hoa.chn</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>/otc/AJINOMOTO-cong-ty-ajinomoto-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/AJINOMOTO-cong-ty-ajinomoto-viet-nam.chn</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>/hose/HDG-ctcp-tap-doan-ha-do.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/HDG-ctcp-tap-doan-ha-do.chn</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>/upcom/VGT-tap-doan-det-may-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/VGT-tap-doan-det-may-viet-nam.chn</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>/hose/KDC-ctcp-tap-doan-kido.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/KDC-ctcp-tap-doan-kido.chn</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>/hastc/VGS-ctcp-ong-thep-viet-duc.chn</t>
+          <t>https://cafef.vn/du-lieu//hastc/VGS-ctcp-ong-thep-viet-duc.chn</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>/hose/CMG-cong-ty-co-phan-tap-doan-cong-nghe-cmc.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/CMG-cong-ty-co-phan-tap-doan-cong-nghe-cmc.chn</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>/otc/SEMV-cong-ty-tnhh-samsung-electromechanics-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/SEMV-cong-ty-tnhh-samsung-electromechanics-viet-nam.chn</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>/otc/GOLDENGATE-ctcp-thuong-mai-dich-vu-cong-vang.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/GOLDENGATE-ctcp-thuong-mai-dich-vu-cong-vang.chn</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>/hastc/PTI-tong-ctcp-bao-hiem-buu-dien.chn</t>
+          <t>https://cafef.vn/du-lieu//hastc/PTI-tong-ctcp-bao-hiem-buu-dien.chn</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>/otc/TTIPC-cong-ty-tnhh-mtv-phat-trien-cong-nghiep-tan-thuan.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/TTIPC-cong-ty-tnhh-mtv-phat-trien-cong-nghiep-tan-thuan.chn</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>/otc/VSDC-tong-cong-ty-luu-ky-va-bu-tru-chung-khoan-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/VSDC-tong-cong-ty-luu-ky-va-bu-tru-chung-khoan-viet-nam.chn</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>/hose/VCI-ctcp-chung-khoan-vietcap.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VCI-ctcp-chung-khoan-vietcap.chn</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>/otc/TKGVINA-cong-ty-co-phan-tkg-taekwang-vina.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/TKGVINA-cong-ty-co-phan-tkg-taekwang-vina.chn</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>/otc/CPVN-ctcp-chan-nuoi-cp-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/CPVN-ctcp-chan-nuoi-cp-viet-nam.chn</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>/hose/APH-ctcp-tap-doan-an-phat-holdings.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/APH-ctcp-tap-doan-an-phat-holdings.chn</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>/hose/BCG-ctcp-tap-doan-bamboo-capital.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/BCG-ctcp-tap-doan-bamboo-capital.chn</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>/otc/BSGKG-ctcp-bia-sai-gon-kien-giang.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/BSGKG-ctcp-bia-sai-gon-kien-giang.chn</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>/hose/VHC-ctcp-vinh-hoan.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/VHC-ctcp-vinh-hoan.chn</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>/otc/AIG-cong-ty-co-phan-nguyen-lieu-a-chau-aig.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/AIG-cong-ty-co-phan-nguyen-lieu-a-chau-aig.chn</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>/hose/PDR-cong-ty-co-phan-phat-trien-bat-dong-san-phat-dat.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/PDR-cong-ty-co-phan-phat-trien-bat-dong-san-phat-dat.chn</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>/upcom/ABB-ngan-hang-tmcp-an-binh.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/ABB-ngan-hang-tmcp-an-binh.chn</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>/otc/HANDICO-tong-cong-ty-dau-tu-va-phat-trien-nha-ha-noi.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HANDICO-tong-cong-ty-dau-tu-va-phat-trien-nha-ha-noi.chn</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>/otc/WOORIBANK-ngan-hang-tnhh-mtv-woori-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/WOORIBANK-ngan-hang-tnhh-mtv-woori-viet-nam.chn</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>/hose/DHG-cong-ty-co-phan-duoc-hau-giang.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/DHG-cong-ty-co-phan-duoc-hau-giang.chn</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7519,7 +7519,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>/upcom/IDP-ctcp-sua-quoc-te-lof.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/IDP-ctcp-sua-quoc-te-lof.chn</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>/hastc/L18-ctcp-dau-tu-va-xay-dung-so-18.chn</t>
+          <t>https://cafef.vn/du-lieu//hastc/L18-ctcp-dau-tu-va-xay-dung-so-18.chn</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>/upcom/STD-ctcp-bia-nuoc-giai-khat-sai-gon-tay-do.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/STD-ctcp-bia-nuoc-giai-khat-sai-gon-tay-do.chn</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>/upcom/BSP-ctcp-bia-sai-gon-phu-tho.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/BSP-ctcp-bia-sai-gon-phu-tho.chn</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>/otc/NXBGD-cong-ty-tnhh-mtv-nha-xuat-ban-giao-duc-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/NXBGD-cong-ty-tnhh-mtv-nha-xuat-ban-giao-duc-viet-nam.chn</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>/hose/DXG-ctcp-tap-doan-dat-xanh.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/DXG-ctcp-tap-doan-dat-xanh.chn</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>/hastc/BAB-ngan-hang-tmcp-bac-a.chn</t>
+          <t>https://cafef.vn/du-lieu//hastc/BAB-ngan-hang-tmcp-bac-a.chn</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>/hose/TLG-ctcp-tap-doan-thien-long.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/TLG-ctcp-tap-doan-thien-long.chn</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>/upcom/VVS-ctcp-dau-tu-phat-trien-may-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/VVS-ctcp-dau-tu-phat-trien-may-viet-nam.chn</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>/hose/ACG-ctcp-go-an-cuong.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/ACG-ctcp-go-an-cuong.chn</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>/otc/HAWACO-cong-ty-tnhh-mtv-nuoc-sach-ha-noi.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HAWACO-cong-ty-tnhh-mtv-nuoc-sach-ha-noi.chn</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>/otc/CHUBB-cong-ty-tnhh-bao-hiem-nhan-tho-chubb-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/CHUBB-cong-ty-tnhh-bao-hiem-nhan-tho-chubb-viet-nam.chn</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>/otc/HANWHALIFE-cong-ty-tnhh-bao-hiem-hanwha-life-viet-nam.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HANWHALIFE-cong-ty-tnhh-bao-hiem-hanwha-life-viet-nam.chn</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>/otc/XSKH-cong-ty-tnhh-mtv-xo-so-kien-thiet-khanh-hoa.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/XSKH-cong-ty-tnhh-mtv-xo-so-kien-thiet-khanh-hoa.chn</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>/hose/SIP-ctcp-dau-tu-sai-gon-vrg.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SIP-ctcp-dau-tu-sai-gon-vrg.chn</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>/hose/KBC-tong-cong-ty-phat-trien-do-thi-kinh-bac-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/KBC-tong-cong-ty-phat-trien-do-thi-kinh-bac-ctcp.chn</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>/otc/LONGTHUAN-cong-ty-co-phan-tap-doan-long-thuan.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/LONGTHUAN-cong-ty-co-phan-tap-doan-long-thuan.chn</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>/hose/PGI-tong-ctcp-bao-hiem-petrolimex.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/PGI-tong-ctcp-bao-hiem-petrolimex.chn</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>/upcom/VEA-tong-cong-ty-may-dong-luc-va-may-nong-nghiep-viet-nam-ctcp.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/VEA-tong-cong-ty-may-dong-luc-va-may-nong-nghiep-viet-nam-ctcp.chn</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>/hose/BWE-ctcp-tong-cong-ty-nuoc-moi-truong-binh-duong.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/BWE-ctcp-tong-cong-ty-nuoc-moi-truong-binh-duong.chn</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>/upcom/SSH-ctcp-phat-trien-sunshine-homes.chn</t>
+          <t>https://cafef.vn/du-lieu//upcom/SSH-ctcp-phat-trien-sunshine-homes.chn</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>/hose/CII-ctcp-dau-tu-ha-tang-ky-thuat-tp-ho-chi-minh.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/CII-ctcp-dau-tu-ha-tang-ky-thuat-tp-ho-chi-minh.chn</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>/hastc/HUT-ctcp-tasco.chn</t>
+          <t>https://cafef.vn/du-lieu//hastc/HUT-ctcp-tasco.chn</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>/hose/SHI-ctcp-quoc-te-son-ha.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SHI-ctcp-quoc-te-son-ha.chn</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>/hose/SMC-ctcp-dau-tu-thuong-mai-smc.chn</t>
+          <t>https://cafef.vn/du-lieu//hose/SMC-ctcp-dau-tu-thuong-mai-smc.chn</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>/otc/HDBS-cong-ty-co-phan-chung-khoan-hd.chn</t>
+          <t>https://cafef.vn/du-lieu//otc/HDBS-cong-ty-co-phan-chung-khoan-hd.chn</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
